--- a/app/data/absenteeism_data_12.xlsx
+++ b/app/data/absenteeism_data_12.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>13555</v>
+        <v>81670</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maria Luiza Carvalho</t>
+          <t>Lucas Gabriel Cardoso</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,27 +494,27 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45085</v>
+        <v>45088</v>
       </c>
       <c r="G2" t="n">
-        <v>2908.45</v>
+        <v>4994.29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>85792</v>
+        <v>56802</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sophia da Rocha</t>
+          <t>Gabriela Araújo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,22 +523,22 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45098</v>
+        <v>45080</v>
       </c>
       <c r="G3" t="n">
-        <v>12022.43</v>
+        <v>4539.36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>19371</v>
+        <v>91245</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dra. Camila Porto</t>
+          <t>João Gabriel Cavalcanti</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,113 +548,113 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45093</v>
+        <v>45094</v>
       </c>
       <c r="G4" t="n">
-        <v>6747.29</v>
+        <v>7091.92</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>66969</v>
+        <v>40045</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ana Luiza Aragão</t>
+          <t>Gabrielly Moraes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45091</v>
+        <v>45106</v>
       </c>
       <c r="G5" t="n">
-        <v>3635.3</v>
+        <v>4797.08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>81117</v>
+        <v>4099</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Diogo Cardoso</t>
+          <t>Sr. Caio Carvalho</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45083</v>
+        <v>45098</v>
       </c>
       <c r="G6" t="n">
-        <v>6730.73</v>
+        <v>4250.25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>38403</v>
+        <v>72394</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Laís Silva</t>
+          <t>Evelyn Souza</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45080</v>
+        <v>45089</v>
       </c>
       <c r="G7" t="n">
-        <v>10826.15</v>
+        <v>7302.44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>92673</v>
+        <v>23992</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Arthur Farias</t>
+          <t>Brenda Aragão</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -664,31 +664,31 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45090</v>
+        <v>45100</v>
       </c>
       <c r="G8" t="n">
-        <v>4013.86</v>
+        <v>3502.64</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>34922</v>
+        <v>2696</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Manuela Caldeira</t>
+          <t>Isaac da Rosa</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -700,68 +700,68 @@
         <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45096</v>
+        <v>45099</v>
       </c>
       <c r="G9" t="n">
-        <v>10188.63</v>
+        <v>12339.88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>93327</v>
+        <v>81177</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Lucas Gabriel Alves</t>
+          <t>Maria Vitória Lima</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45082</v>
+        <v>45086</v>
       </c>
       <c r="G10" t="n">
-        <v>9772.459999999999</v>
+        <v>4049.69</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>73301</v>
+        <v>52802</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Luiz Miguel Caldeira</t>
+          <t>Julia Silveira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45104</v>
+        <v>45085</v>
       </c>
       <c r="G11" t="n">
-        <v>3486.07</v>
+        <v>6459.05</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/absenteeism_data_12.xlsx
+++ b/app/data/absenteeism_data_12.xlsx
@@ -476,103 +476,103 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10435</v>
+        <v>21106</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sarah Almeida</t>
+          <t>Bernardo Rodrigues</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45106</v>
+        <v>45101</v>
       </c>
       <c r="G2" t="n">
-        <v>5303.14</v>
+        <v>9897.440000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>32986</v>
+        <v>39272</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sr. Miguel Pires</t>
+          <t>Sr. Matheus Martins</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45100</v>
+        <v>45082</v>
       </c>
       <c r="G3" t="n">
-        <v>5866.94</v>
+        <v>2930.94</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>36476</v>
+        <v>60823</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Marina da Luz</t>
+          <t>Lorenzo Aragão</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45083</v>
+        <v>45100</v>
       </c>
       <c r="G4" t="n">
-        <v>5941.16</v>
+        <v>2825.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>65226</v>
+        <v>69122</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Benício Teixeira</t>
+          <t>Maria Sophia Barbosa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,56 +581,56 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45098</v>
+        <v>45101</v>
       </c>
       <c r="G5" t="n">
-        <v>5134.35</v>
+        <v>10750.34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>59802</v>
+        <v>83824</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nicole Porto</t>
+          <t>Giovanna Jesus</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45078</v>
+        <v>45105</v>
       </c>
       <c r="G6" t="n">
-        <v>11978.14</v>
+        <v>3085.55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>57266</v>
+        <v>13975</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>João Miguel Correia</t>
+          <t>Leonardo Cunha</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,22 +639,22 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45102</v>
+        <v>45106</v>
       </c>
       <c r="G7" t="n">
-        <v>10406.1</v>
+        <v>7300.46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>15980</v>
+        <v>76303</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nina da Conceição</t>
+          <t>João Miguel Moreira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -664,26 +664,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45098</v>
+        <v>45095</v>
       </c>
       <c r="G8" t="n">
-        <v>7881.09</v>
+        <v>8550.889999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>42402</v>
+        <v>38890</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Giovanna Barbosa</t>
+          <t>Maria Clara Novaes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -693,75 +693,75 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45088</v>
+        <v>45083</v>
       </c>
       <c r="G9" t="n">
-        <v>5118.26</v>
+        <v>4706.95</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>17834</v>
+        <v>90328</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Laís Ribeiro</t>
+          <t>Sr. Emanuel da Costa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45090</v>
+        <v>45091</v>
       </c>
       <c r="G10" t="n">
-        <v>7348.89</v>
+        <v>5371.06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>39248</v>
+        <v>89096</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ana Júlia Sales</t>
+          <t>Sr. Thales Gonçalves</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45105</v>
+        <v>45084</v>
       </c>
       <c r="G11" t="n">
-        <v>7762.13</v>
+        <v>8233.15</v>
       </c>
     </row>
   </sheetData>
